--- a/resistores valores.xlsx
+++ b/resistores valores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diego.rsilva52\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A72C7838-0848-4F17-9037-7D0678B1F4E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{94ADF358-B4C3-401C-B085-705390FFB812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{BAF21F71-EEFE-44B3-8E73-D8239EA481AE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="39">
   <si>
     <t>Resistor</t>
   </si>
@@ -98,9 +98,6 @@
     <t>dourado</t>
   </si>
   <si>
-    <t>Ω±</t>
-  </si>
-  <si>
     <t>220Ω±10%</t>
   </si>
   <si>
@@ -144,6 +141,18 @@
   </si>
   <si>
     <t>100Ω±5%</t>
+  </si>
+  <si>
+    <t>3k9Ω±5%</t>
+  </si>
+  <si>
+    <t>cinza</t>
+  </si>
+  <si>
+    <t>820Ω±5%</t>
+  </si>
+  <si>
+    <t>12kΩ±5%</t>
   </si>
 </sst>
 </file>
@@ -531,8 +540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3632C7B-E9C4-4970-9144-171F9984BEC4}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -558,10 +567,10 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
         <v>25</v>
-      </c>
-      <c r="G1" t="s">
-        <v>26</v>
       </c>
       <c r="H1" t="s">
         <v>5</v>
@@ -587,7 +596,7 @@
         <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -598,10 +607,10 @@
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
         <v>17</v>
@@ -613,7 +622,7 @@
         <v>17</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -624,7 +633,7 @@
         <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -633,7 +642,7 @@
         <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="17.25" x14ac:dyDescent="0.35">
@@ -644,16 +653,16 @@
         <v>18</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>27</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -661,19 +670,19 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
         <v>30</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" t="s">
         <v>31</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -681,22 +690,22 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" t="s">
         <v>33</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -707,7 +716,7 @@
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
@@ -716,31 +725,67 @@
         <v>19</v>
       </c>
       <c r="H8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
       <c r="H9" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
       <c r="H10" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" t="s">
+        <v>19</v>
+      </c>
       <c r="H11" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
